--- a/biology/Biochimie/Chromatographie_de_partage/Chromatographie_de_partage.xlsx
+++ b/biology/Biochimie/Chromatographie_de_partage/Chromatographie_de_partage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La chromatographie de partage est une méthode de séparation de molécules par chromatographie suivant leur migration/répartition différentielle dans deux phases liquides. La phase stationnaire est liquide et la phase mobile l'est aussi, les liquides doivent donc être non miscibles.
-En 1952, Martin et Synge reçurent le prix Nobel de chimie pour leur invention de la chromatographie de partage[1].
+En 1952, Martin et Synge reçurent le prix Nobel de chimie pour leur invention de la chromatographie de partage.
 Le support : c'est le solide poreux qui est imprégné de liquide. Son intervention en tant qu'absorbant est inévitable et parfois même, il peut être dominant sur l'effet de partage. Il est choisi en fonction de critères expérimentaux (épaisseur, texture). Les supports sont très variables : cellulose, gel de silice…
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Techniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Actuellement, la chromatographie de partage est largement utilisée en laboratoire, une des phases liquides est remplacée par une phase stationnaire greffée. La phase stationnaire est greffée par des méthodes utilisant la chimie des silanes (liaisons Si-O-Si-C) avec des alkyl-silanes. Les longues chaines alkyl greffées sur la phase solide sont assimilables à une phase liquide, c'est pour cela qu'il s'agit d'une chromatographie de partage.
 Selon la polarité du greffon, deux méthodes chromatographiques existent : 
@@ -550,7 +564,9 @@
           <t>Configuration physique du système</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La chromatographie de partage liquide-liquide peut être réalisée :
 sur colonne : celle-ci est remplie d'un support imprégné d'un solvant fixe. Le tout constitue la phase stationnaire. Le support doit absorber suffisamment de solvant fixe pour obtenir une couche épaisse. Cette couche épaisse va exercer son rôle de solvant à l'égard des solutés entraînés par le solvant mobile. Il est impossible dans cette technique d'obtenir des supports totalement inertes, donc il est pratiquement impossible de déterminer ce qui relève du partage ;
@@ -582,7 +598,9 @@
           <t>Applications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Analyse quantitative, séparations des éléments d'une solution liquide en fonction de son affinité avec une autre phase liquide (interactions polaires). Séparation des alcools d'un parfum, séparation des hydrocarbures d'un pétrole, d'une huile…
 </t>
